--- a/trunk/bin/Debug/income statement.xlsx
+++ b/trunk/bin/Debug/income statement.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>ចំណូលលក់</t>
   </si>
@@ -50,6 +50,21 @@
   </si>
   <si>
     <t>……………………………………………………………………………………………………………</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Financial Statement of </t>
+  </si>
+  <si>
+    <t>ប្រភេទ</t>
+  </si>
+  <si>
+    <t>បរិយាយ</t>
+  </si>
+  <si>
+    <t>ឯកតា</t>
+  </si>
+  <si>
+    <t>ទឹកប្រាក់</t>
   </si>
 </sst>
 </file>
@@ -59,7 +74,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,37 +106,62 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="15"/>
-      <color theme="1"/>
-      <name val="Khmer OS Muol Light"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Khmer OS Siemreap"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Khmer OS Siemreap"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Khmer OS Content"/>
+      <name val="Khmer OS Metal Chrieng"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Khmer OS Metal Chrieng"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Khmer OS Metal Chrieng"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Khmer OS"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -129,56 +169,392 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,165 +857,233 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="1"/>
     <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="1" spans="1:7" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="1:7" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+    </row>
+    <row r="3" spans="1:7" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+    </row>
+    <row r="4" spans="1:7" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="32.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="8">
         <f>0</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+    <row r="6" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="10">
         <f>SUM(E5:E6)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="31"/>
+      <c r="C9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="12">
         <f>0</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+    <row r="10" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="2" t="s">
+      <c r="C11" s="37"/>
+      <c r="D11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="12">
         <f>E7-E9</f>
         <v>0</v>
       </c>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="B13" s="31"/>
+      <c r="C13" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="14">
         <f>0</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
+    <row r="14" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="10">
         <f>SUM(E13:E14)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+    <row r="16" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="2" t="s">
+      <c r="C17" s="39"/>
+      <c r="D17" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="16">
         <f>E11-E15</f>
         <v>0</v>
       </c>
     </row>
+    <row r="18" spans="1:5" ht="24" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>